--- a/js_output/script_logs(100-199).xlsx
+++ b/js_output/script_logs(100-199).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,12 +544,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.googletagmanager.com/gtag/js?id=G-CSLL4ZEK4L&amp;l=dataLayer&amp;cx=c&amp;gtm=45He4cc1za200</t>
+          <t>https://www.googletagmanager.com/gtag/js?id=G-CSLL4ZEK4L&amp;l=dataLayer&amp;cx=c&amp;gtm=45He5230za200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7e6693f89bc1d46d57f610a2d730138a18c9c040bdb8a99982c0b8ca8e2074de</t>
+          <t>c7ad36239f2901fd44c705c83f8f4c8eec90e61d7675f6a4f6b6dc0718d9cb4b</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -757,6 +757,1062 @@
           <t>EasyPrivacy, Peter Lowe's List</t>
         </is>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Videos/2021/03/03/MHS-Genesis-Patient-Portal-Registration</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://static.addtoany.com/menu/modules/core.junnp81e.js</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>b00eeb8c32abb6c98087da03b96fc864cb69c44960eb049329289c3ece2ca57d</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Videos/2021/03/03/MHS-Genesis-Patient-Portal-Registration</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://static.addtoany.com/menu/page.js</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>aa975d2982cebc1e99154617b0e7d985c39481b356fad275573d814531fcef6a</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtag/js?id=G-CSLL4ZEK4L&amp;l=dataLayer&amp;cx=c&amp;gtm=45He5230v9200395265za200</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10b47301fee18c27d690a0bb0e3af6ec7a2c1d377ee0f6a1b908b8032fe831e7</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtm.js?id=GTM-K2NQ4CXG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>e3597aa4738d4a6877f6e6b3cd397553fea0f3065f89a6acbf66c1907af7f258</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.dha.mil/wwwroot/lib/jquery/jquery.min.js</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81c0e6cb4f021d67ac0845358b476ad95fb07fb2cd8b327662ee287575104ae9</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.dha.mil/wwwroot/lib/jquery-ajax-unobtrusive/jquery.unobtrusive-ajax.min.js</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7218ba55b30ac9e8b3a673eb2051c04857ac2ab2cfb61d7d295fc0043ee78f3b</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.dha.mil/layouts/system/VisitorIdentification.js</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>377a135d04ccd405df08b78272b2b8d2cdcfb2e00f91feff552e08a22c3df602</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.dha.mil/wwwroot/lib/bootstrap/js/bootstrap.bundle.min.js</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>a0ebf3da81c2b97ef2375e37bbd2afd65fe8956654d99be187d8379d86c0043d</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.dha.mil/wwwroot/js/dhad.min.js?v=1.0.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>eee88f8a9373ff2a3465defdaf4fba986fbf11a21ec194756cac535086f38572</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://dap.digitalgov.gov/Universal-Federated-Analytics-Min.js?agency=DOD&amp;subagency=DHA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>b3695dfc22dc54f848cd2c108b0c2d450e27b3f0c4175657517f7113194ca85c</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://nytimes.com</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nytimes.com</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://accounts.google.com/gsi/client</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2ca11d6133b5a313fb740fbdb8c4f6a2a99482dd30044c82635e53f43e16df63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://top-fwz1.mail.ru/js/code.js</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22f937c909626d53916f53b6b71508c6a6686a76881f9a0987c62131f5b2f1ce</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/react.785823df.js</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7da47cd19c89d64cd05c01ca81e46bb4256ddd6bee9034c300cd4206f0e272cc</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/vkui.9f6f4600.js</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5706d440f6b3da16e11bbff0243f4dab8ed6632a8d084e8f101d49c6ff547154</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/architecture-mobx.590e845d.js</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>d5752af6f3787f71cd63ab6e2301ef0d6f62ba6d24d858cc687a03a9760b771d</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/draggable.d59c2db3.js</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>586dcf296b82d44cd648617d75184f9613018b12489b9b1f9e31721894124d3a</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/state-management.a047c2f5.js</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6a457ec4e2448f37387ccacd6b71d9ef2cc686cd43c01e9acb4314b4f39ce232</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://vk.com/js/lib/px.js?ch=1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4bf5415d9c3348f21da3dc30afa52980fedaaa1bafeb5fd4a4ad314c52f2d281</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://vk.com/js/lib/px.js?ch=2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>389b825ad6b0365607d088e056896157e932f955844e721bfed7a9d2a42cbaf1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://vk.com/dist/web/language.383413f6.js</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7b9896d1e956b677756e9efb7ccd6ba64108fb46c397db7e231f32bfd5becd4e</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/js/lib/ui_controls.js?200</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>b1430337d78a4767d8dbe3b264218dc567da1551008729139aede92f92a05a35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/search_top_anonymous.821ec93b.js</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c5f55eb162a7ef7d65c8f4f0f007b84614891ab656e63abb14046793f71cfac7</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/performance_observers.7eae85d0.js</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f3799b2df85414abeffe73d7e5f4a251887c844f745800fc1327074f4a99ed1e</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/css_types.09b58335.js</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3bcc74521cf780561beef9c0318d1ccb21eab096493058cfbe414c141ceb5560</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/vk_sans_observer.2bab5ea5.js</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>e374f8d9c835c6f3f03932e6fe110d7a5215c185749d63b547cc8e456bda426e</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/jobs_devtools_notification.b31c12d9.js</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1d2052ed870189aeb280f032a31583ca0a2a4a9d2a7a9df039bbbd71c699a87b</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/page_layout.da64f923.js</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7554db7986034a9bb945491df3b9c3ac4618563b003aa6778f573f1a4252e290</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/grip.4f1feaa5.js</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>d390a901678140f30d2f5e995a7a42c7a6caf68049723be7a5822331c2fdf84f</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://privacy-cs.mail.ru/static/sync-loader.js</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6d682172eaa5adb1639d667121d9be1cdf1f9058f104c1247ed7b1e1893608b9</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://top-fwz1.mail.ru/js/dyn-goal-config.js?ids=2579437</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4cb191e9ad6b18b08acd07ad0458fc3b08383b9e2e3dadf590610e7ec7d54866</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://vk.com/js/langs/web/stickers-popup-tq-handlers.797ae8774f3e2305.js?v=1&amp;p=web</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>bcd2696a7167ff9a866405d8f013c6355a2af4679bb519533fd901417b9d80fb</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/webSwClient.cf5992c7.js</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1ed82a4d907377a34f8e5b76017a72af60a6c6c8bf1c20656be17b24578726c1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/webPushNotifier.1c246247.js</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2bf4619e0df5eb5b2a2bc609553e96352a6f6227626b8d181c77c23ddfd1c005</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://userapi.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://userapi.com</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://vk.com/js/langs/web/webPushNotifier.02ae0ade011c9bc3.js?v=1&amp;p=web</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c0122b8e523f4de4558c86725dd78afb37bb32474b75cbee9b4bbede45705296</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/js_output/script_logs(100-199).xlsx
+++ b/js_output/script_logs(100-199).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1812,7 +1812,4616 @@
           <t>0</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://paypal.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://paypal.com -( event Event(click, /html/body/div/div/header/div/div/nav/ul/li[3]/div/div/div/div/ul/li[3]/a) )-&gt; [event] https://paypal.com</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://flickr.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://flickr.com</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://xiaomi.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://xiaomi.com</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://xiaomi.com</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://xiaomi.com</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://consent.trustarc.com/asset/notice.js/v/v1.7-289</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1c5c86abc9e31e5934b76d0497b9aeee57e01a4b123d5144a7e3a85d84a438a7</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://applovin.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://applovin.com</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://cdn.cookielaw.org/scripttemplates/otSDKStub.js</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>fbdc5f2b9eb3d68f0b8c29feafa699be26e7590e2c96bbe9234e2988e3514395</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://applovin.com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://applovin.com -( event Event(click, /html/body/div[5]/div[2]/div/div[2]/button) )-&gt; [event] https://applovin.com</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://bat.bing.com/bat.js</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3106df879b1d09363a7a71aee8076c2eb9195b9e6d075fd9d3c865eae7e6e499</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://applovin.com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://applovin.com -( event Event(click, /html/body/div[5]/div[2]/div/div[2]/button) )-&gt; [event] https://applovin.com</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://applovin.com</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://applovin.com -( event Event(click, /html/body/div[5]/div[2]/div/div[2]/button) )-&gt; [event] https://applovin.com</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.redditstatic.com/ads/pixel.js</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>787d52ad6557ac611ed690af84c7463bff9e04a20249a449e4173fc5f1788216</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://applovin.com</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://applovin.com -( event Event(click, /html/body/div[5]/div[2]/div/div[2]/button) )-&gt; [event] https://applovin.com</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://one.one</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://one.one -( event Event(click, /html/body/div[6]/div/div/div/div/main/section[5]/div/div/div[3]/div/div[2]/div/div[3]/a) )-&gt; [event] https://one.one</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/iframe_api</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>efd0e6abc2d9de7bbe29e7a28749c146cab3c608bf5c677074a19cb72785a2bc</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://meraki.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://meraki.com -( event Event(click, /html/body/div/div/div[2]/div/main/article/div/div[14]/div/div/div/a) )-&gt; [event] https://meraki.com</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://cdn.cookielaw.org/scripttemplates/otSDKStub.js</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>fbdc5f2b9eb3d68f0b8c29feafa699be26e7590e2c96bbe9234e2988e3514395</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://meraki.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://meraki.com -( event Event(click, /html/body/div/div/header/div[2]/div[2]/div/div[2]/div[3]/a) )-&gt; [event] https://meraki.com</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://medium.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://medium.com</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://static.cloudflareinsights.com/beacon.min.js/vcd15cbe7772f49c399c6a5babf22c1241717689176015</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>5c2fe06dd92752b0a22db65d67ccbde8cf4a54e0e8a096066f1ad8ecff9ad518</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://casalemedia.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://casalemedia.com</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://cdn.cookielaw.org/scripttemplates/otSDKStub.js</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>fbdc5f2b9eb3d68f0b8c29feafa699be26e7590e2c96bbe9234e2988e3514395</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://casalemedia.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://casalemedia.com -( event Event(click, //*[@id="accept-recommended-btn-handler"]) )-&gt; [event] https://casalemedia.com</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://forbes.com</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://forbes.com</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>5b2ed0116e81cfa18dd5a25eb96297980919d5c9436a364d19828eed4bd3c17c</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://forbes.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://forbes.com</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/pagead/managed/js/gpt/m202501300101/pubads_impl.js</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>742d89bf4307b93903484181aed1f34d9325a16229a5e4e2150516f92f6b5f52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://munchkin.marketo.net/164/munchkin.js</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>35d7197458e8565d1d0d6ff551ca3c009e4bc069ce7ec0606995689585c3eab6</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://rubiconproject.com</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://munchkin.marketo.net/munchkin.js</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>573ad66efb5e254dd80a698cc1c0ad1f01dec80edb8a6eb3c8b287ea114d65b2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>5b2ed0116e81cfa18dd5a25eb96297980919d5c9436a364d19828eed4bd3c17c</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://soundcloud.com</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://analytics.tiktok.com/i18n/pixel/static/identify_45dd5971.js</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>01c4828c35fe574c20bc7b546d04e527b85501a10974b55748529ea597745714</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/s/player/9c6dfc4a/www-widgetapi.vflset/www-widgetapi.js</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>b9af97b458b3c74c251efea32fba4465134e490531f890d54def4328b4908bb2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/iframe_api</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>efd0e6abc2d9de7bbe29e7a28749c146cab3c608bf5c677074a19cb72785a2bc</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://consent.trustarc.com/asset/notice.js/v/v1.7-289</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1c5c86abc9e31e5934b76d0497b9aeee57e01a4b123d5144a7e3a85d84a438a7</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://munchkin.marketo.net/munchkin.js</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>573ad66efb5e254dd80a698cc1c0ad1f01dec80edb8a6eb3c8b287ea114d65b2</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/go/product/welcome-to-nginx</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/go/product/welcome-to-nginx</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/go/product/welcome-to-nginx</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://js.adsrvr.org/up_loader.1.1.0.js</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>7c94f1b4b9cac0ad16159c57c05255462a72fe21b99f57bee874a5484ab5afde</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/go/product/welcome-to-nginx</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://munchkin.marketo.net/164/munchkin.js</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>35d7197458e8565d1d0d6ff551ca3c009e4bc069ce7ec0606995689585c3eab6</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://static.ads-twitter.com/uwt.js</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>7b7d86014aee032bb034bf3d9f1b4d13f72e089ac0f065ce6ce06111ca6c3aac</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://bat.bing.com/bat.js</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3106df879b1d09363a7a71aee8076c2eb9195b9e6d075fd9d3c865eae7e6e499</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div/ul/li[4]/div/ul/li/div/ul/li/ul/li/a) )-&gt; [event] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://nginx.com</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nginx.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div/ul/li[4]/div/ul/li/div/ul/li/ul/li/a) )-&gt; [event] https://nginx.com</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://ssl.google-analytics.com/ga.js</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>571e1535fc089ccd9e64022799d4c76948e2a77e165e72a966f5a196ad50fe84</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://doubleverify.com</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://doubleverify.com -( get None )-&gt; [get] https://doubleverify.com/insights/doubleverify-events/</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://consent.trustarc.com/asset/notice.js/v/v1.7-289</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1c5c86abc9e31e5934b76d0497b9aeee57e01a4b123d5144a7e3a85d84a438a7</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://img.ak.impact-ad.jp/ut/a1/tracking.min.js</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22100b8b45e298215fb3fbfa5a9d9a4fd8c875c423a8c4017d346954bb665e06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://j.6sc.co/6si.min.js</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5b6b20368ce4d4bd2e65d184d801177f7499bb8b7c3c271a6d1d5de1957dfe9e</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://cdn.cookie.sync.usonar.jp/cookie_sync/landscape_cookie_sync.js</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99029413f0a1da9fcb0847fb35bae35dd0b4ee4f4c3743178808520223eb75f2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://img.ak.impact-ad.jp/ut/mone.e8550a4814c_5846.js</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>31479c88e6773b7de63d05a3c030ef6a609675086ed417a4f4fdb7a72b79b82c</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtag/js?id=G-89EY6SNB5Y&amp;l=dataLayer&amp;cx=c&amp;gtm=45fe5240v9190633886za200</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>f9b496b215f1d6ad04e517ed1257c6c0f6dcc169c065e413c3240c1f6284143b</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtag/js?id=DC-11283378&amp;l=dataLayer&amp;cx=c&amp;gtm=45fe5240v9190633886za200</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1a7441eb64e33857c01560259606aa16296e5abe3a9cac7eeea47f668d80b13c</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://c1.rfihub.net/js/tc.min.js</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>f8aa29fcf59f765aadd3bdb64bceff59cdaf83110a4280343573d0629db55318</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>EasyList</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://j.6sc.co/j/c8cfdab5-8fb4-48dc-8076-1a4ca3aceb61.js</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>aac8f2ac99f97711e184d695e31e5f3d78fbcd5860a40ae1bbf7effe54e0f899</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://cdn.speedcurve.com/js/lux.js?id=89948425</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>dbfe93261e1aa4322ef4efbe999635ffcb0d0ea9336732c89826a6a294ecd47a</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/signals/config/1491912051620464?v=2.9.182&amp;r=stable&amp;domain=www.f5.com&amp;hme=b8122d5d96cd6f542162ba4f497489972d1ebe228d24c39d34f560e30ae932ce&amp;ex_m=70%2C122%2C107%2C111%2C61%2C4%2C100%2C69%2C16%2C97%2C89%2C51%2C54%2C173%2C176%2C188%2C184%2C185%2C187%2C29%2C101%2C53%2C77%2C186%2C168%2C171%2C181%2C182%2C189%2C132%2C41%2C191%2C192%2C34%2C144%2C15%2C50%2C197%2C196%2C134%2C18%2C40%2C1%2C43%2C65%2C66%2C67%2C71%2C93%2C17%2C14%2C96%2C92%2C91%2C108%2C52%2C110%2C39%2C109%2C30%2C94%2C26%2C169%2C172%2C141%2C86%2C56%2C84%2C33%2C73%2C0%2C95%2C32%2C28%2C82%2C83%2C88%2C47%2C46%2C87%2C37%2C11%2C12%2C13%2C6%2C7%2C25%2C22%2C23%2C57%2C62%2C64%2C75%2C102%2C27%2C76%2C9%2C8%2C80%2C48%2C21%2C104%2C103%2C105%2C98%2C10%2C20%2C3%2C38%2C74%2C19%2C5%2C90%2C81%2C44%2C35%2C85%2C2%2C36%2C63%2C42%2C106%2C45%2C79%2C68%2C112%2C60%2C59%2C31%2C99%2C58%2C55%2C49%2C78%2C72%2C24%2C113%2C203%2C202%2C204%2C209%2C210%2C211%2C207%2C199%2C133%2C135%2C164%2C198%2C200%2C239%2C167%2C123%2C158%2C146%2C152%2C130%2C236%2C117%2C127%2C128%2C237%2C166%2C120%2C137%2C124%2C155%2C149%2C195%2C114%2C129</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>e1f9f4caf4a8658746f56f01266f0d0ee780849b116f2f502f3bfc6db46a3373</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/signals/config/2313250105523201?v=2.9.182&amp;r=stable&amp;domain=www.f5.com&amp;hme=b8122d5d96cd6f542162ba4f497489972d1ebe228d24c39d34f560e30ae932ce&amp;ex_m=70%2C122%2C107%2C111%2C61%2C4%2C100%2C69%2C16%2C97%2C89%2C51%2C54%2C173%2C176%2C188%2C184%2C185%2C187%2C29%2C101%2C53%2C77%2C186%2C168%2C171%2C181%2C182%2C189%2C132%2C41%2C191%2C192%2C34%2C144%2C15%2C50%2C197%2C196%2C134%2C18%2C40%2C1%2C43%2C65%2C66%2C67%2C71%2C93%2C17%2C14%2C96%2C92%2C91%2C108%2C52%2C110%2C39%2C109%2C30%2C94%2C26%2C169%2C172%2C141%2C86%2C56%2C84%2C33%2C73%2C0%2C95%2C32%2C28%2C82%2C83%2C88%2C47%2C46%2C87%2C37%2C11%2C12%2C13%2C6%2C7%2C25%2C22%2C23%2C57%2C62%2C64%2C75%2C102%2C27%2C76%2C9%2C8%2C80%2C48%2C21%2C104%2C103%2C105%2C98%2C10%2C20%2C3%2C38%2C74%2C19%2C5%2C90%2C81%2C44%2C35%2C85%2C2%2C36%2C63%2C42%2C106%2C45%2C79%2C68%2C112%2C60%2C59%2C31%2C99%2C58%2C55%2C49%2C78%2C72%2C24%2C113%2C203%2C202%2C204%2C209%2C210%2C211%2C207%2C199%2C133%2C135%2C164%2C198%2C200%2C239%2C167%2C123%2C158%2C146%2C152%2C130%2C236%2C117%2C127%2C128%2C237%2C166%2C120%2C137%2C124%2C155%2C149%2C195%2C114%2C129</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>074e611be5301c9eac6d74ab54e700f555569f043fe74a66ab3c552c4381d669</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/signals/config/392631281093023?v=2.9.182&amp;r=stable&amp;domain=www.f5.com&amp;hme=b8122d5d96cd6f542162ba4f497489972d1ebe228d24c39d34f560e30ae932ce&amp;ex_m=70%2C122%2C107%2C111%2C61%2C4%2C100%2C69%2C16%2C97%2C89%2C51%2C54%2C173%2C176%2C188%2C184%2C185%2C187%2C29%2C101%2C53%2C77%2C186%2C168%2C171%2C181%2C182%2C189%2C132%2C41%2C191%2C192%2C34%2C144%2C15%2C50%2C197%2C196%2C134%2C18%2C40%2C1%2C43%2C65%2C66%2C67%2C71%2C93%2C17%2C14%2C96%2C92%2C91%2C108%2C52%2C110%2C39%2C109%2C30%2C94%2C26%2C169%2C172%2C141%2C86%2C56%2C84%2C33%2C73%2C0%2C95%2C32%2C28%2C82%2C83%2C88%2C47%2C46%2C87%2C37%2C11%2C12%2C13%2C6%2C7%2C25%2C22%2C23%2C57%2C62%2C64%2C75%2C102%2C27%2C76%2C9%2C8%2C80%2C48%2C21%2C104%2C103%2C105%2C98%2C10%2C20%2C3%2C38%2C74%2C19%2C5%2C90%2C81%2C44%2C35%2C85%2C2%2C36%2C63%2C42%2C106%2C45%2C79%2C68%2C112%2C60%2C59%2C31%2C99%2C58%2C55%2C49%2C78%2C72%2C24%2C113%2C203%2C202%2C204%2C209%2C210%2C211%2C207%2C199%2C133%2C135%2C164%2C198%2C200%2C239%2C167%2C123%2C158%2C146%2C152%2C130%2C236%2C117%2C127%2C128%2C237%2C166%2C120%2C137%2C124%2C155%2C149%2C195%2C114%2C129</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>8b46ad1b6391b2e434bdb5ad02f00aa81ce0eabe489bf08c23f341a925fe3768</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/signals/config/128687871147784?v=2.9.182&amp;r=stable&amp;domain=www.f5.com&amp;hme=b8122d5d96cd6f542162ba4f497489972d1ebe228d24c39d34f560e30ae932ce&amp;ex_m=70%2C122%2C107%2C111%2C61%2C4%2C100%2C69%2C16%2C97%2C89%2C51%2C54%2C173%2C176%2C188%2C184%2C185%2C187%2C29%2C101%2C53%2C77%2C186%2C168%2C171%2C181%2C182%2C189%2C132%2C41%2C191%2C192%2C34%2C144%2C15%2C50%2C197%2C196%2C134%2C18%2C40%2C1%2C43%2C65%2C66%2C67%2C71%2C93%2C17%2C14%2C96%2C92%2C91%2C108%2C52%2C110%2C39%2C109%2C30%2C94%2C26%2C169%2C172%2C141%2C86%2C56%2C84%2C33%2C73%2C0%2C95%2C32%2C28%2C82%2C83%2C88%2C47%2C46%2C87%2C37%2C11%2C12%2C13%2C6%2C7%2C25%2C22%2C23%2C57%2C62%2C64%2C75%2C102%2C27%2C76%2C9%2C8%2C80%2C48%2C21%2C104%2C103%2C105%2C98%2C10%2C20%2C3%2C38%2C74%2C19%2C5%2C90%2C81%2C44%2C35%2C85%2C2%2C36%2C63%2C42%2C106%2C45%2C79%2C68%2C112%2C60%2C59%2C31%2C99%2C58%2C55%2C49%2C78%2C72%2C24%2C113</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>8f8339c4ba8852759511dff3215fa58cb3d13468f0f30b3527226fa5cb5252cb</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://static.cloud.coveo.com/coveo.analytics.js/2/coveoua.js</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0fa2096cc8b58d92f583c2d8119c809fdb9c71cafabcc22dfb5c614aa4512a56</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://js.adsrvr.org/up_loader.1.1.0.js</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>7c94f1b4b9cac0ad16159c57c05255462a72fe21b99f57bee874a5484ab5afde</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://cdn.cookie.sync.usonar.jp/live_acsess/e8550a4814c.js</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>6a601ff79a295137a8e00bae8081dbe004cf38672bce07911941955767c7cb83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://scripts.demandbase.com/pscSDsz4.min.js</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>e2e1affdf36d583f3e376753a3ec57c0663901671be0447bbc46a5736031496a</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtag/js?id=DC-5322751</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>b71e19a57b42bff042bd0c1211eb22cdc35f4a8409675d5902f5c35d7c254c53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://service.force.com/embeddedservice/5.0/esw.min.js</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>a74237e5ef0d4be6da3bfb2e877c7922d5830ed36331b1ba8fc7f8e9926cd00e</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://cdn.bizible.com/scripts/bizible.js</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>27348dae7032694e191c6ea421ce5918cb0922af6e7e5be188afef1b629deb35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/s/player/9c6dfc4a/www-widgetapi.vflset/www-widgetapi.js</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>b9af97b458b3c74c251efea32fba4465134e490531f890d54def4328b4908bb2</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://munchkin.marketo.net/164/munchkin.js</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>35d7197458e8565d1d0d6ff551ca3c009e4bc069ce7ec0606995689585c3eab6</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/iframe_api</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>efd0e6abc2d9de7bbe29e7a28749c146cab3c608bf5c677074a19cb72785a2bc</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://munchkin.marketo.net/munchkin.js</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>573ad66efb5e254dd80a698cc1c0ad1f01dec80edb8a6eb3c8b287ea114d65b2</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://munchkin.marketo.net/munchkin-beta.js</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>6272ab826a42b51f6de483405e0552eeefcfec89ab40a17ba552e8b8328c1918</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.js</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>812b6db9a5690968ed726d3f95ad04dbe30f7408ee9257b32ffdc4d61d62d6d3</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.sync.js</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2fa76b00a31c24e3610efbc555a3326a5eef3e39cf6b5fdfc32c95eca4c52ed4</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://scripts.demandbase.com/adobeanalytics/pscSDsz4.min.js</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>44f95baf527021d6867e499c053e9ab9eb521ff8768d1199fa91db560fa2ed4f</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://consent.trustarc.com/notice?domain=f5.com&amp;c=teconsent&amp;js=nj&amp;noticeType=bb&amp;text=true&amp;gtm=1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>5e2161620be03af0accd7897c3abb18c97a9ba3193d5711931cb3c2e19dbbe42</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://api.company-target.com/api/v3/ip.json?key=bHs0TqHc3PHlmvnLJU140H2OOPWlHvXd5ONa4VE5&amp;callback=Dmdbase_CDC.callback</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>074b59104dbcb8fe48131a5e07b0781426577263e3f7e97751d476e5e7a9be3a</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.4.js?utv=ut4.48.202103032120</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>27f170883108aee1e5a926194f343d9f872a910daa9461a1c5b521592911de38</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.35.js?utv=ut4.48.202109292238</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>d1a7f130b0d21076cbeeba1d733270a8ec9203ec9ccd5c63411a64ce177fde7d</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.94.js?utv=ut4.48.202412101842</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3def401b5bbcee9d89a8c1fa84926737b3ba92f65e0281dc70ce92ed14a801ad</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.110.js?utv=ut4.48.202109292238</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1ad1dbb6c619357648b80af1d79505b21e3f14feb24a40655720d6147542e016</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.111.js?utv=ut4.48.202109292238</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>460ed4c4f48597524037e3e5a4a512ee3ac3f814375c8945898c06ec044b77c2</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.116.js?utv=ut4.48.202109292238</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>a0b3118f3d3b41de6071c6d85ce0347111c1086798848a82d138ccc8e8d3ef47</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.117.js?utv=ut4.48.202109292238</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>9b7252eb776a072b1487f1f650ea312ea60b42f0494c5086225c7e64af829a5e</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.118.js?utv=ut4.48.202109292238</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2d70f1957d18643fe34fcf8c334fba88307049e5c68053737ef740aac6fe7367</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.2.js?utv=ut4.48.202501302114</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>bf631c66270980f2f63f29cee1ce6a4767772c15de902700f4269772994b665c</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.140.js?utv=ut4.48.202203172012</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>49203cbf42a14c5b6849e55275fbc91c87421b91912e679a01795b6f535e2a7a</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.230.js?utv=ut4.48.202109242152</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>7e0703c6b129627fd770f36a4f3eeb709a92b04cf5c8fbcb7315f28802347d82</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.235.js?utv=ut4.48.202306221911</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>a48ec65dce365b76ab4f02a4556a0ead8b08d853fcbaa8de8c52b1303611a608</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.243.js?utv=ut4.48.202111232207</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>e7b0cdb1152f5b9808f8bf4f4fa947960e6acf0ba41ff89d1cef4b157d992728</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.272.js?utv=ut4.48.202412101842</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>d451c036651a7584d603c642c28a6909e30b2fae79657aace72d158630684502</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.273.js?utv=ut4.48.202305012146</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>796d01079e8df65016e5969c36f249866a09b1afdc9b2f4e9efa9106837da2ab</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.280.js?utv=ut4.48.202208152351</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>4998ef74c75563d95586780371efad7a5a2d958f3230289dc711b593064bcad6</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.283.js?utv=ut4.48.202208251850</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>71aa713b1d743daf2e0976f7a9b3a6237772ba01f5d399ecf9f94bff96f10d16</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.290.js?utv=ut4.48.202212051827</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>7fc030d08be59f427e42f19afdf64ae13055a296fb9701843f603974309f5900</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.293.js?utv=ut4.48.202310042218</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>650a0b21fde0d76075ecf97718af3c93a2b694ac2e8bc6563f2dc772013d6ba4</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.294.js?utv=ut4.48.202404122048</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>54b51472e76748f058a10632b3e79030a58ada5deb3f78d322af071a77503a82</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.303.js?utv=ut4.48.202410042128</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>77cd640574fa348aaa9fb18cc58d827eab5ab744a131975b27ad1d389a1603d0</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.320.js?utv=ut4.48.202406112056</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2b1200a055f7ff6f37f1498dd344024d49a5954146062d5b5a4ccbf40dee147e</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.325.js?utv=ut4.48.202406202051</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>a5708809fa5e6f610084a15d8ae6635e4908f18a3b651d518012bb3e9446e0ed</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://consent.trustarc.com/asset/notice.js/v/v1.7-289</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1c5c86abc9e31e5934b76d0497b9aeee57e01a4b123d5144a7e3a85d84a438a7</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.f5.com/etc.clientlibs/base/clientlibs/libs/jquery/v3.6.0.abec7e706514e7e243d79b097790f71b.js</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>413856c75c7cf7c1b61d0f3aa1e74b19974dc0cc14af690e5962feb8766a5ca1</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.f5.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.027d01df25f17066242db969c9bf2ade.js</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>3d9fa2c23104d1db97cf5c74f9878079727cacfbe067391992a109de678bf3b1</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.f5.com/etc.clientlibs/f5-com/clientlibs/clientlib-base.096525380dd3cb7f54533495f148c172.js</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>19561ee8a1d10ef551a8c52a8f7f33441468ad62dc8eef7044aeb0cc698dcab3</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.f5.com/etc.clientlibs/f5-com/clientlibs/clientlib-components.3ce311e78c9592782739b0c8302f10bd.js</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1b043b9109f7b4ae9634cbefc1b75a445e6a68189786e80c71e5935355c8435f</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://d.la1-c2-ph2.salesforceliveagent.com/chat/rest/EmbeddedService/EmbeddedServiceConfig.jsonp?Settings.prefix=EmbeddedService&amp;org_id=00D00000000hXqv&amp;EmbeddedServiceConfig.configName=F5_Einstein_Bot&amp;callback=embedded_svc.liveAgentAPI.handleChatSettings&amp;version=48</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>b9014403720c3fd6cd7f7a2b6d1d6e7b5a10775200b75fe011f898d34534417e</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://d.la1-c2-ph2.salesforceliveagent.com/chat/rest/Visitor/Settings.jsonp?Settings.prefix=Visitor&amp;Settings.buttonIds=[5731T000000XgLt]&amp;Settings.updateBreadcrumb=1&amp;callback=embedded_svc.liveAgentAPI.connection.handlePing&amp;deployment_id=5721T000000Xfzl&amp;org_id=00D00000000hXqv&amp;version=48</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>d4fab0d4cfd3e94bbb04eeb58430c52ab9ca8ceb386f7cd66c1ae00dcc5def9f</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://d.la13-core1.sfdc-yfeipo.salesforceliveagent.com/chat/rest/EmbeddedService/EmbeddedServiceConfig.jsonp?Settings.prefix=EmbeddedService&amp;org_id=00D00000000hXqv&amp;EmbeddedServiceConfig.configName=F5_Einstein_Bot&amp;callback=embedded_svc.liveAgentAPI.handleChatSettings&amp;version=48</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>6bb6295d7d5e14bdad20ae9e35c5adf332ff3485e9605775f021aaa88a21c66c</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://d.la13-core1.sfdc-yfeipo.salesforceliveagent.com/chat/rest/Visitor/Settings.jsonp?Settings.prefix=Visitor&amp;Settings.buttonIds=[5731T000000XgLt]&amp;Settings.updateBreadcrumb=1&amp;callback=embedded_svc.liveAgentAPI.connection.handlePing&amp;deployment_id=5721T000000Xfzl&amp;org_id=00D00000000hXqv&amp;version=48</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>f6a812847cd600e0ca12f567e952b73aaab7c84102b84b7848a38b46da1942df</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://d.la13-core1.sfdc-yfeipo.salesforceliveagent.com/chat/rest/Visitor/Availability.jsonp?sid=undefined&amp;r=455&amp;Availability.prefix=Visitor&amp;Availability.ids=[5731T000000XgLt]&amp;callback=embedded_svc.liveAgentAPI.connection.handlePing&amp;deployment_id=5721T000000Xfzl&amp;org_id=00D00000000hXqv&amp;version=48</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>28f4110ef4c94229147475647d9a01f2e837eb244ab05beec665490c5c054148</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://service.force.com/embeddedservice/5.0/utils/common.min.js</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>340c01c3e65c84aad5ec8f6183a027fad4055cb58f68e4c934c64a43d8c3c4a9</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://service.force.com/embeddedservice/5.0/client/liveagent.esw.min.js</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>3a57b1ebdeed09df38e6b4942186ce9246f223e457e0499452dba436044eb8cd</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://service.force.com/embeddedservice/5.0/client/invite.esw.min.js</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>ee8cf88efd689bdbb3cdcf606ddb89916ba5c8d7ddecb08457e104add121187c</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( ui_form Ui_form([{'xpath': '/html/body/div[2]/div/div/header/div[2]/nav/div/div/ul[2]/li/div/div[2]/input', 'value': 'jAEkPotUI'}], //*[@id="search-bar-open-button"]) )-&gt; [ui_form] https://www.f5.com/</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://service.force.com/embeddedservice/5.0/utils/inert.min.js</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0ca62f8b924e365e41433a820d72ca010ec2c5a54e6e9e5049c81c415fbc33cf</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://static.ads-twitter.com/uwt.js</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>7b7d86014aee032bb034bf3d9f1b4d13f72e089ac0f065ce6ce06111ca6c3aac</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://bat.bing.com/bat.js</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>3106df879b1d09363a7a71aee8076c2eb9195b9e6d075fd9d3c865eae7e6e499</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://b92.yahoo.co.jp/js/s_retargeting.js</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1eb6cb429ccc1a9d5c4800283d4a58e93fcbef039c743e0d8b5ca6879163b52e</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtag/js?id=AW-894950352&amp;l=dataLayer&amp;cx=c&amp;gtm=45fe5240v9190633886za200</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>6311b1ba451c4a95b968a31af0c2902e1ba1d2bb3cc4420cd69128872122d410</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/signals/config/301335987935399?v=2.9.182&amp;r=stable&amp;domain=www.f5.com&amp;hme=b8122d5d96cd6f542162ba4f497489972d1ebe228d24c39d34f560e30ae932ce&amp;ex_m=70%2C122%2C107%2C111%2C61%2C4%2C100%2C69%2C16%2C97%2C89%2C51%2C54%2C173%2C176%2C188%2C184%2C185%2C187%2C29%2C101%2C53%2C77%2C186%2C168%2C171%2C181%2C182%2C189%2C132%2C41%2C191%2C192%2C34%2C144%2C15%2C50%2C197%2C196%2C134%2C18%2C40%2C1%2C43%2C65%2C66%2C67%2C71%2C93%2C17%2C14%2C96%2C92%2C91%2C108%2C52%2C110%2C39%2C109%2C30%2C94%2C26%2C169%2C172%2C141%2C86%2C56%2C84%2C33%2C73%2C0%2C95%2C32%2C28%2C82%2C83%2C88%2C47%2C46%2C87%2C37%2C11%2C12%2C13%2C6%2C7%2C25%2C22%2C23%2C57%2C62%2C64%2C75%2C102%2C27%2C76%2C9%2C8%2C80%2C48%2C21%2C104%2C103%2C105%2C98%2C10%2C20%2C3%2C38%2C74%2C19%2C5%2C90%2C81%2C44%2C35%2C85%2C2%2C36%2C63%2C42%2C106%2C45%2C79%2C68%2C112%2C60%2C59%2C31%2C99%2C58%2C55%2C49%2C78%2C72%2C24%2C113%2C203%2C202%2C204%2C209%2C210%2C211%2C207%2C199%2C133%2C135%2C164%2C198%2C200%2C239%2C167%2C123%2C158%2C146%2C152%2C130%2C236%2C117%2C127%2C128%2C237%2C166%2C120%2C137%2C124%2C155%2C149%2C195%2C114%2C129</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>c73d5700f62157d0c388b49531fa5c2439871f859a24fd00b6f7de228fd6662c</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.107.js?utv=ut4.48.202301031820</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1ff37aeb46e53896ea7fea573a3bd722fdc4e7b594335a719f34df12ecd2874b</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.190.js?utv=ut4.48.202109241808</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>c7bc3e61db6ca2300358cadcc622ec9c7cf023561efd1a2b0bee2037d8db1bfe</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.256.js?utv=ut4.48.202203020008</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>d7867d663e3787cc6c52b8c2c86b789f55d46ebd91e93052b7c981401bed940d</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.265.js?utv=ut4.48.202406121650</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>6a312f7a1146efef02f0651d72c885225ff22808a73fe022ba827df52a3649d7</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.295.js?utv=ut4.48.202306061722</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>b3e8f06680f40390ace54efc4a685b66f65496ed962afb7ce2dbb07edf04e555</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.296.js?utv=ut4.48.202310042218</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>07e7e1aa1c063b2648beb58db6b7188a6d44d61cecb2e269f060907b968e740f</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.304.js?utv=ut4.48.202310042218</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2ca3d33d8bb2b09ea268e9079affb05de3a017fe42aae28ddf48531b855be8d5</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://mktg.tags.f5.com/main/prod/utag.370.js?utv=ut4.48.202410181937</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>56b6e2cc29ee327f08834a4ccdc7411659733a0ea4d045446bee8ff7551daedb</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://lib-3pas.admatrix.jp/3pas/js/AdMatrixAnalyze.min.js</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4be92832b6b19e9f33c99d1b7b2210ee99008bcbbf6bc0509e2156af59e1dd65</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://serving-pa.admatrix.jp/static/js/join-ad-interest-group.js</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>f8c5cb4aa6c70ddf5295ecb442dea8903e118f59facc164df940bfbf0adbd21e</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://bat.bing.com/p/action/343051042.js</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5f23f134fc963f21f69c1167b2aa5b39948065655408ea0072ba2caba2082328</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div[2]/div/div/ul/li[4]/div/ul/li[6]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://dmp.im-apps.net/pms/8ed0Wxme/segments.js</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4f7e90936bf6883ea40252a0b3872eb8d70ebce1fb6c2bc55c71e979ecda88e0</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div/ul/li[4]/div/ul/li[3]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.f5.com/etc.clientlibs/base/clientlibs/libs/swiper/v4.4.6.74571ff9ea0f905f582197d9e94ab140.js</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>18cf3bd11e47c41cb1edbb66408b45ae237833577d0eceb987048de79f0c60f4</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div/ul/li[4]/div/ul/li[3]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.f5.com/etc.clientlibs/f5-com/components/structure/u07-jump-nav-bar/clientlib.63794735841cf5e034b821746f0aa13a.js</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>dae67c33dc95f71e07f43a44e3a99dc03f20f5b3cfad412551df3f374f19fd99</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://f5.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://f5.com -( event Event(click, /html/body/div[2]/div/div/header/div[2]/div/nav/div/ul/li[4]/div/ul/li[3]/a) )-&gt; [event] https://f5.com</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.f5.com/etc.clientlibs/f5-com/components/articles/a09-article-list-filter/clientlibs.906f9540a5caa44ed52d85165ce31469.js</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>be1714c8d922a0afe04f6a7dfa6c0594b700cc85f346977894ab6907e0acd6d4</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://mc.yandex.ru/metrika/tag.js</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>b4f5927bbb077e5cc31e76ca08ca7bbb747da50de05216f59eede13e1f533839</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://yandex.ru -( event Event(invalid, /html/body/div/div/main/div/form/input[3]) )-&gt; [event] https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://top-fwz1.mail.ru/js/code.js</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>22f937c909626d53916f53b6b71508c6a6686a76881f9a0987c62131f5b2f1ce</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://yandex.ru -( event Event(invalid, /html/body/div/div/main/div/form/input[3]) )-&gt; [event] https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.gstatic.com/cast/sdk/libs/sender/1.0/cast_framework.js</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2243a314b809fec00fb459e73e59ed53cdd744b7235d4685eff36d4677686926</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://yandex.ru -( event Event(invalid, /html/body/div/div/main/div/form/input[3]) )-&gt; [event] https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.gstatic.com/eureka/clank/131/cast_sender.js</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>692e456d90b74c05975c7c03f07f394a2f5628c6e92804d52800e5ad553f43d0</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://yandex.ru -( event Event(invalid, /html/body/div/div/main/div/form/input[3]) )-&gt; [event] https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://privacy-cs.mail.ru/static/sync-loader.js</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>6d682172eaa5adb1639d667121d9be1cdf1f9058f104c1247ed7b1e1893608b9</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://yandex.ru -( event Event(invalid, /html/body/div/div/main/div/form/input[3]) )-&gt; [event] https://yandex.ru</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.gstatic.com/cv/js/sender/v1/cast_sender.js?loadCastFramework=1</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>33d0de687961ddf52d33f8c48d43b667958e26dfb936fa15327e8ced7bb5a35a</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://analytics.tiktok.com/i18n/pixel/static/identify_45dd5971.js</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>01c4828c35fe574c20bc7b546d04e527b85501a10974b55748529ea597745714</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://bat.bing.com/bat.js</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>3106df879b1d09363a7a71aee8076c2eb9195b9e6d075fd9d3c865eae7e6e499</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.clarity.ms/s/0.7.66/clarity.js</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>fc6b4a9865741ae1f22d0eee70d7c11acbf217f1fa1d6803e6bd629f5adeffd9</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://dev.visualwebsiteoptimizer.com/cdn/edrv/va_gq-e7b1c606ccb50fcb42bc8d408108c973br.js</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>51c62161a595c6c079bc051c85e5076d4cbd3f7612d92b03f3b7da731405db97</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://dev.visualwebsiteoptimizer.com/cdn/edrv/nc-be5af6815b086ecd788c6dc5ee041f99br.js</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>273429d729a058783d43fb9644b32afc344c351a5df3706e4cf9601df3555c7d</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://static.ads-twitter.com/oct.js</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>507255b0b63cff3aa77748cd388de6b48021a57761a28e39630659a6bdb61562</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com -( get None )-&gt; [get] https://taboola.com/contact</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.google.com/recaptcha/api.js</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>5ef66f95ce5ea284d032bb12d204a2a05076f181cce99105f2f8db8252cb5ca9</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://taboola.com</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://taboola.com -( event Event(click, /html/body/main/section[8]/div/div/div/a) )-&gt; [event] https://taboola.com</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
